--- a/Documents/Database_Schema.xlsx
+++ b/Documents/Database_Schema.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="889" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="889" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
-    <sheet name="Roles" sheetId="3" r:id="rId2"/>
-    <sheet name="StockDetails" sheetId="17" r:id="rId3"/>
-    <sheet name="Product" sheetId="12" r:id="rId4"/>
-    <sheet name="Transaction" sheetId="18" r:id="rId5"/>
+    <sheet name="Role" sheetId="3" r:id="rId2"/>
+    <sheet name="Product" sheetId="12" r:id="rId3"/>
+    <sheet name="Brand" sheetId="20" r:id="rId4"/>
+    <sheet name="ProductSize" sheetId="19" r:id="rId5"/>
+    <sheet name="ProductMaterial" sheetId="22" r:id="rId6"/>
+    <sheet name="StockDetails" sheetId="23" r:id="rId7"/>
+    <sheet name="Transaction" sheetId="18" r:id="rId8"/>
+    <sheet name="TransactionDetails" sheetId="21" r:id="rId9"/>
+    <sheet name="User" sheetId="24" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="87">
   <si>
     <t>Column Name</t>
   </si>
@@ -35,9 +40,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -59,51 +61,12 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Photograph</t>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-  </si>
-  <si>
-    <t>Photograph of the employee</t>
-  </si>
-  <si>
     <t>PhoneNumber</t>
   </si>
   <si>
-    <t>varchar(15)</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>Link to the image file on the disk</t>
-  </si>
-  <si>
-    <t>varchar(3)</t>
-  </si>
-  <si>
-    <t>Identity seed = 1000</t>
-  </si>
-  <si>
-    <t>Primary Key, Identity</t>
-  </si>
-  <si>
-    <t>PK, Indentity</t>
-  </si>
-  <si>
-    <t>nvarchar(max)</t>
-  </si>
-  <si>
     <t>No Foreign Key, new cities can be added</t>
   </si>
   <si>
-    <t>Product_Name</t>
-  </si>
-  <si>
-    <t>Product_ID</t>
-  </si>
-  <si>
     <t>Name of the products used for business</t>
   </si>
   <si>
@@ -113,39 +76,15 @@
     <t>Table Name : StockDetails</t>
   </si>
   <si>
-    <t>Foreign key to Product Table</t>
-  </si>
-  <si>
-    <t>size of the product</t>
-  </si>
-  <si>
     <t>Quantity in KG</t>
   </si>
   <si>
-    <t>quantity in pieces</t>
-  </si>
-  <si>
-    <t>local/imported</t>
-  </si>
-  <si>
-    <t>finished/rawmaterial</t>
-  </si>
-  <si>
     <t>Table Name : Person</t>
   </si>
   <si>
-    <t>Table Name : Client</t>
-  </si>
-  <si>
     <t>PersonID</t>
   </si>
   <si>
-    <t>ClientID</t>
-  </si>
-  <si>
-    <t>Foreign key to Customer</t>
-  </si>
-  <si>
     <t>varchar(1)</t>
   </si>
   <si>
@@ -158,15 +97,9 @@
     <t>StockID</t>
   </si>
   <si>
-    <t>MinStockLimit</t>
-  </si>
-  <si>
     <t>Minimum stock quantity</t>
   </si>
   <si>
-    <t>MaxStockLimit</t>
-  </si>
-  <si>
     <t>Maximum Stock Quantity</t>
   </si>
   <si>
@@ -185,9 +118,6 @@
     <t>ProductPieces</t>
   </si>
   <si>
-    <t>ProductImportType</t>
-  </si>
-  <si>
     <t>ProductMaterial</t>
   </si>
   <si>
@@ -197,46 +127,169 @@
     <t>Table Name : Transaction</t>
   </si>
   <si>
-    <t>TransactionID</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>AddTime</t>
-  </si>
-  <si>
-    <t>TransactionTime</t>
-  </si>
-  <si>
     <t>ID of stock that is sold or purchased</t>
   </si>
   <si>
     <t>Foreign key to Stock</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Qty Sold or Purchased</t>
-  </si>
-  <si>
     <t>UnitPrice</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
     <t>TransactionType</t>
   </si>
   <si>
     <t>B | S - Buy or Sell</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN | RAW </t>
+  </si>
+  <si>
+    <t>Table Name : ProductSize</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>Objectid</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Table Name : Role</t>
+  </si>
+  <si>
+    <t>Foreign key to person table</t>
+  </si>
+  <si>
+    <t>Finished or Raw Material</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Foreign key to Products</t>
+  </si>
+  <si>
+    <t>Quantity in pieces</t>
+  </si>
+  <si>
+    <t>Table Name : Brand</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BrandID</t>
+  </si>
+  <si>
+    <t>Foreign Key to Brand Table</t>
+  </si>
+  <si>
+    <t>BrandName</t>
+  </si>
+  <si>
+    <t>MinStockLimitKG</t>
+  </si>
+  <si>
+    <t>MaxStockLimitKG</t>
+  </si>
+  <si>
+    <t>MinStockLimitPc</t>
+  </si>
+  <si>
+    <t>MaxStockLimitPc</t>
+  </si>
+  <si>
+    <t>QuantityKG</t>
+  </si>
+  <si>
+    <t>QuantityPc</t>
+  </si>
+  <si>
+    <t>Qty in KG</t>
+  </si>
+  <si>
+    <t>Qty in Pieces</t>
+  </si>
+  <si>
+    <t>BillingUnit</t>
+  </si>
+  <si>
+    <t>PC | KG</t>
+  </si>
+  <si>
+    <t>Piece or KG</t>
+  </si>
+  <si>
+    <t>Table Name : TransactionDetails</t>
+  </si>
+  <si>
+    <t>Table Name : ProductMaterial</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Foreign Key to Product Size</t>
+  </si>
+  <si>
+    <t>Foreign Key to Product Material</t>
+  </si>
+  <si>
+    <t>SubTotal</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>GrandTotal</t>
+  </si>
+  <si>
+    <t>Foreign Key to person table</t>
+  </si>
+  <si>
+    <t>BillingTime</t>
+  </si>
+  <si>
+    <t>Table Name : User</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>A | U</t>
+  </si>
+  <si>
+    <t>Admin or User</t>
+  </si>
+  <si>
+    <t>User will see only billing section</t>
+  </si>
+  <si>
+    <t>Admin will see all pages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,6 +355,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -349,7 +405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,9 +438,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,6 +490,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +700,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -636,89 +726,72 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -730,12 +803,119 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +929,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -775,43 +955,35 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -824,24 +996,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -867,120 +1040,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -993,24 +1089,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1036,40 +1132,21 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1082,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,12 +1171,12 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1125,65 +1202,530 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
       <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Database_Schema.xlsx
+++ b/Documents/Database_Schema.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
   <si>
     <t>Column Name</t>
   </si>
@@ -85,9 +85,6 @@
     <t>PersonID</t>
   </si>
   <si>
-    <t>varchar(1)</t>
-  </si>
-  <si>
     <t>S | C - Supplier or Customer</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>A | U</t>
-  </si>
-  <si>
     <t>Admin or User</t>
   </si>
   <si>
@@ -284,6 +278,15 @@
   </si>
   <si>
     <t>Admin will see all pages</t>
+  </si>
+  <si>
+    <t>IsAdmin</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>true = admin</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,13 +729,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -740,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -748,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -764,7 +767,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -772,10 +775,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -808,7 +811,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +826,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -849,57 +852,57 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +918,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +932,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -955,13 +958,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -969,10 +972,10 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,10 +983,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +1002,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,29 +1043,29 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1073,7 +1076,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1106,7 +1109,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1132,21 +1135,21 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1179,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1202,32 +1205,32 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1260,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1283,35 +1286,35 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1330,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,71 +1370,71 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1439,57 +1442,57 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1522,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1545,13 +1548,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1559,42 +1562,42 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1613,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1627,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1650,82 +1653,82 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
